--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H2">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J2">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N2">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P2">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q2">
-        <v>43.58401954246</v>
+        <v>110.993864579379</v>
       </c>
       <c r="R2">
-        <v>392.25617588214</v>
+        <v>998.9447812144108</v>
       </c>
       <c r="S2">
-        <v>0.01347376030879436</v>
+        <v>0.02122352598579695</v>
       </c>
       <c r="T2">
-        <v>0.01347376030879436</v>
+        <v>0.02122352598579696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H3">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J3">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P3">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q3">
-        <v>415.8363653256313</v>
+        <v>382.5694703195943</v>
       </c>
       <c r="R3">
-        <v>3742.527287930682</v>
+        <v>3443.125232876349</v>
       </c>
       <c r="S3">
-        <v>0.1285535288598019</v>
+        <v>0.07315244969143064</v>
       </c>
       <c r="T3">
-        <v>0.1285535288598019</v>
+        <v>0.07315244969143068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H4">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J4">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N4">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P4">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q4">
-        <v>155.0701200496513</v>
+        <v>253.3636306499457</v>
       </c>
       <c r="R4">
-        <v>1395.631080446862</v>
+        <v>2280.272675849511</v>
       </c>
       <c r="S4">
-        <v>0.04793907607740207</v>
+        <v>0.04844654809824508</v>
       </c>
       <c r="T4">
-        <v>0.04793907607740206</v>
+        <v>0.04844654809824509</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>190.664594</v>
+        <v>175.411433</v>
       </c>
       <c r="H5">
-        <v>571.993782</v>
+        <v>526.234299</v>
       </c>
       <c r="I5">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="J5">
-        <v>0.2001939625490346</v>
+        <v>0.1535106429347505</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N5">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O5">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P5">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q5">
-        <v>33.083548357098</v>
+        <v>55.89625641691399</v>
       </c>
       <c r="R5">
-        <v>297.751935213882</v>
+        <v>503.0663077522259</v>
       </c>
       <c r="S5">
-        <v>0.01022759730303631</v>
+        <v>0.01068811915927778</v>
       </c>
       <c r="T5">
-        <v>0.01022759730303631</v>
+        <v>0.01068811915927778</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I6">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J6">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N6">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P6">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q6">
-        <v>121.4065222975767</v>
+        <v>336.0669988563869</v>
       </c>
       <c r="R6">
-        <v>1092.65870067819</v>
+        <v>3024.602989707482</v>
       </c>
       <c r="S6">
-        <v>0.03753215968913171</v>
+        <v>0.06426054908734516</v>
       </c>
       <c r="T6">
-        <v>0.0375321596891317</v>
+        <v>0.06426054908734517</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I7">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J7">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P7">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q7">
         <v>1158.343069066088</v>
@@ -883,10 +883,10 @@
         <v>10425.0876215948</v>
       </c>
       <c r="S7">
-        <v>0.3580953989969873</v>
+        <v>0.2214908393356302</v>
       </c>
       <c r="T7">
-        <v>0.3580953989969872</v>
+        <v>0.2214908393356303</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1593.331147</v>
       </c>
       <c r="I8">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J8">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N8">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P8">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q8">
-        <v>431.9593324602586</v>
+        <v>767.1338888375316</v>
       </c>
       <c r="R8">
-        <v>3887.633992142327</v>
+        <v>6904.204999537784</v>
       </c>
       <c r="S8">
-        <v>0.1335378556134851</v>
+        <v>0.1466863604220665</v>
       </c>
       <c r="T8">
-        <v>0.1335378556134851</v>
+        <v>0.1466863604220665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>1593.331147</v>
       </c>
       <c r="I9">
-        <v>0.5576551459273178</v>
+        <v>0.464799214434963</v>
       </c>
       <c r="J9">
-        <v>0.5576551459273177</v>
+        <v>0.4647992144349631</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N9">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O9">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P9">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q9">
-        <v>92.156680211333</v>
+        <v>169.2425722135753</v>
       </c>
       <c r="R9">
-        <v>829.4101219019969</v>
+        <v>1523.183149922178</v>
       </c>
       <c r="S9">
-        <v>0.02848973162771366</v>
+        <v>0.03236146558992108</v>
       </c>
       <c r="T9">
-        <v>0.02848973162771365</v>
+        <v>0.03236146558992109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H10">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J10">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N10">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P10">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q10">
-        <v>34.64472718872666</v>
+        <v>227.867698951911</v>
       </c>
       <c r="R10">
-        <v>311.80254469854</v>
+        <v>2050.809290567199</v>
       </c>
       <c r="S10">
-        <v>0.01071022716593906</v>
+        <v>0.04357138161065641</v>
       </c>
       <c r="T10">
-        <v>0.01071022716593906</v>
+        <v>0.04357138161065642</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H11">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I11">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J11">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P11">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q11">
-        <v>330.5463237006669</v>
+        <v>785.4057989721824</v>
       </c>
       <c r="R11">
-        <v>2974.916913306002</v>
+        <v>7068.652190749642</v>
       </c>
       <c r="S11">
-        <v>0.1021865808443183</v>
+        <v>0.1501801964194209</v>
       </c>
       <c r="T11">
-        <v>0.1021865808443183</v>
+        <v>0.1501801964194209</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H12">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I12">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J12">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N12">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P12">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q12">
-        <v>123.2644914498869</v>
+        <v>520.1493590036778</v>
       </c>
       <c r="R12">
-        <v>1109.380423048982</v>
+        <v>4681.3442310331</v>
       </c>
       <c r="S12">
-        <v>0.03810654064990963</v>
+        <v>0.09945958255571133</v>
       </c>
       <c r="T12">
-        <v>0.03810654064990962</v>
+        <v>0.09945958255571134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>151.5583673333333</v>
+        <v>360.115397</v>
       </c>
       <c r="H13">
-        <v>454.675102</v>
+        <v>1080.346191</v>
       </c>
       <c r="I13">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398187</v>
       </c>
       <c r="J13">
-        <v>0.1591332164896969</v>
+        <v>0.3151536087398188</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N13">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O13">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P13">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q13">
-        <v>26.297953224578</v>
+        <v>114.753652177226</v>
       </c>
       <c r="R13">
-        <v>236.681579021202</v>
+        <v>1032.782869595034</v>
       </c>
       <c r="S13">
-        <v>0.008129867829529937</v>
+        <v>0.0219424481540301</v>
       </c>
       <c r="T13">
-        <v>0.008129867829529937</v>
+        <v>0.02194244815403011</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H14">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I14">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J14">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.22859</v>
+        <v>0.6327629999999999</v>
       </c>
       <c r="N14">
-        <v>0.68577</v>
+        <v>1.898289</v>
       </c>
       <c r="O14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550543</v>
       </c>
       <c r="P14">
-        <v>0.06730352972305123</v>
+        <v>0.1382544270550544</v>
       </c>
       <c r="Q14">
-        <v>18.07369175862667</v>
+        <v>48.10837145251799</v>
       </c>
       <c r="R14">
-        <v>162.66322582764</v>
+        <v>432.9753430726619</v>
       </c>
       <c r="S14">
-        <v>0.005587382559186112</v>
+        <v>0.009198970371255819</v>
       </c>
       <c r="T14">
-        <v>0.005587382559186112</v>
+        <v>0.009198970371255822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H15">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I15">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J15">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.542951</v>
       </c>
       <c r="O15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="P15">
-        <v>0.6421448840062525</v>
+        <v>0.4765301499162115</v>
       </c>
       <c r="Q15">
-        <v>172.4416051530369</v>
+        <v>165.8181220581397</v>
       </c>
       <c r="R15">
-        <v>1551.974446377332</v>
+        <v>1492.363098523258</v>
       </c>
       <c r="S15">
-        <v>0.05330937530514506</v>
+        <v>0.03170666446972966</v>
       </c>
       <c r="T15">
-        <v>0.05330937530514506</v>
+        <v>0.03170666446972967</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H16">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I16">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J16">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8133136666666667</v>
+        <v>1.444396333333334</v>
       </c>
       <c r="N16">
-        <v>2.439941</v>
+        <v>4.333189000000001</v>
       </c>
       <c r="O16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="P16">
-        <v>0.2394631459760435</v>
+        <v>0.3155908096798033</v>
       </c>
       <c r="Q16">
-        <v>64.3054399335569</v>
+        <v>109.8160848985402</v>
       </c>
       <c r="R16">
-        <v>578.748959402012</v>
+        <v>988.3447640868621</v>
       </c>
       <c r="S16">
-        <v>0.01987967363524669</v>
+        <v>0.02099831860378037</v>
       </c>
       <c r="T16">
-        <v>0.01987967363524669</v>
+        <v>0.02099831860378038</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>79.06597733333334</v>
+        <v>76.02905266666666</v>
       </c>
       <c r="H17">
-        <v>237.197932</v>
+        <v>228.087158</v>
       </c>
       <c r="I17">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046771</v>
       </c>
       <c r="J17">
-        <v>0.08301767503395074</v>
+        <v>0.06653653389046772</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.173517</v>
+        <v>0.3186579999999999</v>
       </c>
       <c r="N17">
-        <v>0.520551</v>
+        <v>0.9559739999999999</v>
       </c>
       <c r="O17">
-        <v>0.05108844029465279</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="P17">
-        <v>0.05108844029465278</v>
+        <v>0.06962461334893082</v>
       </c>
       <c r="Q17">
-        <v>13.719291188948</v>
+        <v>24.22726586465466</v>
       </c>
       <c r="R17">
-        <v>123.473620700532</v>
+        <v>218.045392781892</v>
       </c>
       <c r="S17">
-        <v>0.00424124353437288</v>
+        <v>0.004632580445701846</v>
       </c>
       <c r="T17">
-        <v>0.00424124353437288</v>
+        <v>0.004632580445701847</v>
       </c>
     </row>
   </sheetData>
